--- a/Data/Experimetns1.xlsx
+++ b/Data/Experimetns1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\B-ACE\B-ACE\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88947A62-424E-473C-BD9F-5EA61CE496AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD910328-B233-402B-B9FD-F092865086F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="3470" windowWidth="19420" windowHeight="11020" xr2:uid="{D668A331-30C2-42CC-A4FC-BAFC9E19CEFF}"/>
+    <workbookView xWindow="-19310" yWindow="3470" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{D668A331-30C2-42CC-A4FC-BAFC9E19CEFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="34">
   <si>
     <t>Algorithm</t>
   </si>
@@ -135,6 +136,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -233,9 +237,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,6 +282,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BBC6A-7EE9-4B35-86A9-2C06619F83F7}">
   <dimension ref="C1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,15 +638,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" ht="16" x14ac:dyDescent="0.4">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -674,554 +678,554 @@
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="5">
-        <v>250</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4">
+        <v>250</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="5">
-        <v>250</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4">
+        <v>250</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="5">
-        <v>250</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4">
+        <v>250</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="8">
-        <v>250</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="7">
+        <v>250</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="8">
-        <v>250</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="7">
+        <v>250</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="8">
-        <v>250</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="7">
+        <v>250</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="11">
-        <v>250</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="10">
+        <v>250</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="11">
-        <v>250</v>
-      </c>
-      <c r="K12" s="12" t="s">
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="10">
+        <v>250</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="11">
-        <v>250</v>
-      </c>
-      <c r="K13" s="12" t="s">
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="10">
+        <v>250</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="13">
-        <v>250</v>
-      </c>
-      <c r="K14" s="12" t="s">
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="12">
+        <v>250</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="13">
-        <v>250</v>
-      </c>
-      <c r="K15" s="12" t="s">
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="12">
+        <v>250</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="E16" s="13">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="13">
-        <v>250</v>
-      </c>
-      <c r="K16" s="12" t="s">
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="12">
+        <v>250</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="14">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="14">
-        <v>250</v>
-      </c>
-      <c r="K17" s="15" t="s">
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="13">
+        <v>250</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="14">
-        <v>250</v>
-      </c>
-      <c r="K18" s="15" t="s">
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="13">
+        <v>250</v>
+      </c>
+      <c r="K18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="14">
-        <v>250</v>
-      </c>
-      <c r="K19" s="15" t="s">
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="13">
+        <v>250</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="16">
-        <v>1</v>
-      </c>
-      <c r="E20" s="16">
-        <v>1</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="16">
-        <v>250</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="15">
+        <v>250</v>
+      </c>
+      <c r="K20" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="16">
-        <v>1</v>
-      </c>
-      <c r="E21" s="16">
-        <v>1</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="16">
-        <v>250</v>
-      </c>
-      <c r="K21" s="17">
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="15">
+        <v>250</v>
+      </c>
+      <c r="K21" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="16">
-        <v>1</v>
-      </c>
-      <c r="E22" s="16">
-        <v>1</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="16">
-        <v>250</v>
-      </c>
-      <c r="K22" s="17">
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="15">
+        <v>250</v>
+      </c>
+      <c r="K22" s="16">
         <v>3</v>
       </c>
     </row>
@@ -1250,7 +1254,7 @@
       <c r="J23" s="1">
         <v>250</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1279,7 +1283,7 @@
       <c r="J24" s="1">
         <v>250</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1308,114 +1312,114 @@
       <c r="J25" s="1">
         <v>250</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="18">
-        <v>1</v>
-      </c>
-      <c r="E26" s="18">
-        <v>1</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="18">
-        <v>250</v>
-      </c>
-      <c r="K26" s="19">
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="17">
+        <v>250</v>
+      </c>
+      <c r="K26" s="18">
         <v>3</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="18">
-        <v>1</v>
-      </c>
-      <c r="E27" s="18">
-        <v>1</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="18">
-        <v>250</v>
-      </c>
-      <c r="K27" s="19">
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="17">
+        <v>250</v>
+      </c>
+      <c r="K27" s="18">
         <v>3</v>
       </c>
-      <c r="L27" s="20"/>
+      <c r="L27" s="19"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="18">
-        <v>1</v>
-      </c>
-      <c r="E28" s="18">
-        <v>1</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="18">
-        <v>250</v>
-      </c>
-      <c r="K28" s="19">
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="17">
+        <v>250</v>
+      </c>
+      <c r="K28" s="18">
         <v>3</v>
       </c>
-      <c r="L28" s="20"/>
+      <c r="L28" s="19"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1427,4 +1431,781 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB99ADED-7F19-4A50-A5CD-4A39794FFC3D}">
+  <dimension ref="C2:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="15.26953125" customWidth="1"/>
+    <col min="12" max="12" width="15.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4">
+        <v>250</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4">
+        <v>250</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4">
+        <v>250</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="7">
+        <v>250</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="7">
+        <v>250</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="7">
+        <v>250</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="10">
+        <v>250</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="10">
+        <v>250</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="10">
+        <v>250</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="12">
+        <v>250</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="12">
+        <v>250</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="12">
+        <v>250</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="13">
+        <v>250</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="13">
+        <v>250</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="13">
+        <v>250</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="15">
+        <v>250</v>
+      </c>
+      <c r="K18" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="15">
+        <v>250</v>
+      </c>
+      <c r="K19" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="15">
+        <v>250</v>
+      </c>
+      <c r="K20" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1">
+        <v>250</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="1">
+        <v>250</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="1">
+        <v>250</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C24" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="17">
+        <v>250</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="17">
+        <v>250</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="17">
+        <v>250</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Experimetns1.xlsx
+++ b/Data/Experimetns1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\B-ACE\B-ACE\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD910328-B233-402B-B9FD-F092865086F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903169D-B464-49BC-B103-18C8ED228B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="3470" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{D668A331-30C2-42CC-A4FC-BAFC9E19CEFF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="40">
   <si>
     <t>Algorithm</t>
   </si>
@@ -138,7 +138,25 @@
     <t>2</t>
   </si>
   <si>
-    <t>5</t>
+    <t>MADDPG</t>
+  </si>
+  <si>
+    <t>kuroseval8</t>
+  </si>
+  <si>
+    <t>kuroseval9</t>
+  </si>
+  <si>
+    <t>kuroseval10</t>
+  </si>
+  <si>
+    <t>kuroseval11</t>
+  </si>
+  <si>
+    <t>kuroseval12</t>
+  </si>
+  <si>
+    <t>kuroseval13</t>
   </si>
 </sst>
 </file>
@@ -1435,19 +1453,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB99ADED-7F19-4A50-A5CD-4A39794FFC3D}">
-  <dimension ref="C2:L26"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="9" max="9" width="15.26953125" customWidth="1"/>
-    <col min="12" max="12" width="15.08984375" customWidth="1"/>
+    <col min="12" max="12" width="15.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1494,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1504,9 +1525,14 @@
       <c r="K3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>2</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1534,9 +1560,14 @@
       <c r="K4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>3</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1564,9 +1595,14 @@
       <c r="K5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>4</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
@@ -1594,9 +1630,14 @@
       <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>5</v>
+      </c>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1624,9 +1665,14 @@
       <c r="K7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>6</v>
+      </c>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1654,9 +1700,14 @@
       <c r="K8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>7</v>
+      </c>
       <c r="C9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1684,9 +1735,12 @@
       <c r="K9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>8</v>
+      </c>
       <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
@@ -1714,9 +1768,12 @@
       <c r="K10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>9</v>
+      </c>
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
@@ -1744,9 +1801,12 @@
       <c r="K11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>10</v>
+      </c>
       <c r="C12" s="12" t="s">
         <v>4</v>
       </c>
@@ -1774,9 +1834,12 @@
       <c r="K12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>11</v>
+      </c>
       <c r="C13" s="12" t="s">
         <v>9</v>
       </c>
@@ -1804,9 +1867,12 @@
       <c r="K13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>12</v>
+      </c>
       <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
@@ -1834,9 +1900,12 @@
       <c r="K14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>13</v>
+      </c>
       <c r="C15" s="13" t="s">
         <v>4</v>
       </c>
@@ -1864,9 +1933,12 @@
       <c r="K15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>14</v>
+      </c>
       <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
@@ -1894,9 +1966,12 @@
       <c r="K16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>15</v>
+      </c>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
@@ -1925,7 +2000,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>16</v>
+      </c>
       <c r="C18" s="15" t="s">
         <v>4</v>
       </c>
@@ -1954,7 +2032,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>17</v>
+      </c>
       <c r="C19" s="15" t="s">
         <v>9</v>
       </c>
@@ -1983,7 +2064,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>18</v>
+      </c>
       <c r="C20" s="15" t="s">
         <v>11</v>
       </c>
@@ -2012,7 +2096,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>19</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
@@ -2037,14 +2124,15 @@
       <c r="J21" s="1">
         <v>250</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="K21" s="3"/>
       <c r="L21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>20</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2069,14 +2157,15 @@
       <c r="J22" s="1">
         <v>250</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="K22" s="3"/>
       <c r="L22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>21</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2101,14 +2190,15 @@
       <c r="J23" s="1">
         <v>250</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="K23" s="3"/>
       <c r="L23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>22</v>
+      </c>
       <c r="C24" s="17" t="s">
         <v>4</v>
       </c>
@@ -2133,14 +2223,15 @@
       <c r="J24" s="17">
         <v>250</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="K24" s="3"/>
       <c r="L24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>23</v>
+      </c>
       <c r="C25" s="17" t="s">
         <v>9</v>
       </c>
@@ -2165,14 +2256,15 @@
       <c r="J25" s="17">
         <v>250</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="K25" s="3"/>
       <c r="L25" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>24</v>
+      </c>
       <c r="C26" s="17" t="s">
         <v>11</v>
       </c>
@@ -2197,11 +2289,42 @@
       <c r="J26" s="17">
         <v>250</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="K26" s="3"/>
       <c r="L26" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="17">
+        <v>250</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Experimetns1.xlsx
+++ b/Data/Experimetns1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\B-ACE\B-ACE\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903169D-B464-49BC-B103-18C8ED228B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7879D5C-8497-4766-8B4F-3F26692CF8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="3470" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{D668A331-30C2-42CC-A4FC-BAFC9E19CEFF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="38">
   <si>
     <t>Algorithm</t>
   </si>
@@ -141,22 +141,16 @@
     <t>MADDPG</t>
   </si>
   <si>
-    <t>kuroseval8</t>
-  </si>
-  <si>
-    <t>kuroseval9</t>
-  </si>
-  <si>
-    <t>kuroseval10</t>
-  </si>
-  <si>
-    <t>kuroseval11</t>
-  </si>
-  <si>
-    <t>kuroseval12</t>
-  </si>
-  <si>
-    <t>kuroseval13</t>
+    <t>v6</t>
+  </si>
+  <si>
+    <t>eval1</t>
+  </si>
+  <si>
+    <t>eval2</t>
+  </si>
+  <si>
+    <t>eval3</t>
   </si>
 </sst>
 </file>
@@ -1453,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB99ADED-7F19-4A50-A5CD-4A39794FFC3D}">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="B2" sqref="B2:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1465,7 +1459,7 @@
     <col min="12" max="12" width="15.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +1488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1525,11 +1519,12 @@
       <c r="K3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1560,11 +1555,12 @@
       <c r="K4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1595,11 +1591,12 @@
       <c r="K5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1631,10 +1628,13 @@
         <v>29</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1666,10 +1666,13 @@
         <v>29</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1701,10 +1704,13 @@
         <v>29</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1735,9 +1741,11 @@
       <c r="K9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1770,7 +1778,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1803,7 +1811,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1836,7 +1844,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>11</v>
       </c>
@@ -1869,7 +1877,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>12</v>
       </c>
@@ -1902,7 +1910,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>13</v>
       </c>
@@ -1935,7 +1943,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>14</v>
       </c>
@@ -1968,7 +1976,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2000,7 +2008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>16</v>
       </c>
@@ -2032,7 +2040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>17</v>
       </c>
@@ -2064,7 +2072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>18</v>
       </c>
@@ -2096,7 +2104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>19</v>
       </c>
@@ -2125,11 +2133,8 @@
         <v>250</v>
       </c>
       <c r="K21" s="3"/>
-      <c r="L21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>20</v>
       </c>
@@ -2158,11 +2163,8 @@
         <v>250</v>
       </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>21</v>
       </c>
@@ -2191,11 +2193,8 @@
         <v>250</v>
       </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>22</v>
       </c>
@@ -2224,11 +2223,8 @@
         <v>250</v>
       </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>23</v>
       </c>
@@ -2257,11 +2253,8 @@
         <v>250</v>
       </c>
       <c r="K25" s="3"/>
-      <c r="L25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>24</v>
       </c>
@@ -2290,11 +2283,8 @@
         <v>250</v>
       </c>
       <c r="K26" s="3"/>
-      <c r="L26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>25</v>
       </c>
@@ -2323,9 +2313,6 @@
         <v>250</v>
       </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
